--- a/2_Formulas_and_Functions/4_Math_Functions/3_Misc.xlsx
+++ b/2_Formulas_and_Functions/4_Math_Functions/3_Misc.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\4_Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2CA287-436E-48FD-BD23-1F31A8413380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8781C51-24B5-4450-9696-32BD2DD265F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Job Title</t>
   </si>
@@ -58,13 +70,16 @@
   </si>
   <si>
     <t>Company D</t>
+  </si>
+  <si>
+    <t>Percent Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +87,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,14 +126,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,30 +420,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -408,8 +457,11 @@
       <c r="C2">
         <v>55000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -419,8 +471,9 @@
       <c r="C3">
         <v>65000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -430,8 +483,9 @@
       <c r="C4">
         <v>75000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -440,6 +494,100 @@
       </c>
       <c r="C5">
         <v>85000</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DA83C6-F419-4F00-811C-D385787E6068}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>55000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>65000</v>
+      </c>
+      <c r="D3" s="6">
+        <f>(C3-C2)/C2</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>75000</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D5" si="0">(C4-C3)/C3</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>85000</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
       </c>
     </row>
   </sheetData>
